--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Shared ESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342001DB-DD4F-4714-B947-1DF8C5E799C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B776A1D-50BA-48D4-928B-2859A795E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,16 +512,20 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
+        <f>C2*10</f>
+        <v>10.819000000000001</v>
+      </c>
+      <c r="C2">
         <v>1.0819000000000001</v>
       </c>
     </row>
@@ -1149,127 +1153,127 @@
       </c>
       <c r="B2" s="3">
         <f>'Investment Cost NREL, USD'!B2/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>146.70967741935482</v>
       </c>
       <c r="C2" s="2">
         <f>'Investment Cost NREL, USD'!C2/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>146.70967741935482</v>
       </c>
       <c r="D2" s="2">
         <f>'Investment Cost NREL, USD'!D2/'Conversion rate'!$B$2</f>
-        <v>1648.9509196783436</v>
+        <v>164.89509196783436</v>
       </c>
       <c r="E2" s="2">
         <f>'Investment Cost NREL, USD'!E2/'Conversion rate'!$B$2</f>
-        <v>1186.2547370366947</v>
+        <v>118.62547370366947</v>
       </c>
       <c r="F2" s="2">
         <f>'Investment Cost NREL, USD'!F2/'Conversion rate'!$B$2</f>
-        <v>1119.66817635641</v>
+        <v>111.96681763564098</v>
       </c>
       <c r="G2" s="2">
         <f>'Investment Cost NREL, USD'!G2/'Conversion rate'!$B$2</f>
-        <v>1062.702652740549</v>
+        <v>106.27026527405491</v>
       </c>
       <c r="H2" s="2">
         <f>'Investment Cost NREL, USD'!H2/'Conversion rate'!$B$2</f>
-        <v>1017.5949718088547</v>
+        <v>101.75949718088546</v>
       </c>
       <c r="I2" s="2">
         <f>'Investment Cost NREL, USD'!I2/'Conversion rate'!$B$2</f>
-        <v>972.48729087716049</v>
+        <v>97.248729087716043</v>
       </c>
       <c r="J2" s="2">
         <f>'Investment Cost NREL, USD'!J2/'Conversion rate'!$B$2</f>
-        <v>927.3796099454662</v>
+        <v>92.737960994546626</v>
       </c>
       <c r="K2" s="2">
         <f>'Investment Cost NREL, USD'!K2/'Conversion rate'!$B$2</f>
-        <v>882.27008041408624</v>
+        <v>88.227008041408624</v>
       </c>
       <c r="L2" s="2">
         <f>'Investment Cost NREL, USD'!L2/'Conversion rate'!$B$2</f>
-        <v>837.1771882798779</v>
+        <v>83.717718827987795</v>
       </c>
       <c r="M2" s="2">
         <f>'Investment Cost NREL, USD'!M2/'Conversion rate'!$B$2</f>
-        <v>822.49838247527487</v>
+        <v>82.249838247527492</v>
       </c>
       <c r="N2" s="2">
         <f>'Investment Cost NREL, USD'!N2/'Conversion rate'!$B$2</f>
-        <v>807.81957667067195</v>
+        <v>80.781957667067189</v>
       </c>
       <c r="O2" s="2">
         <f>'Investment Cost NREL, USD'!O2/'Conversion rate'!$B$2</f>
-        <v>793.12690636842581</v>
+        <v>79.312690636842575</v>
       </c>
       <c r="P2" s="2">
         <f>'Investment Cost NREL, USD'!P2/'Conversion rate'!$B$2</f>
-        <v>778.44902486366561</v>
+        <v>77.844902486366564</v>
       </c>
       <c r="Q2" s="2">
         <f>'Investment Cost NREL, USD'!Q2/'Conversion rate'!$B$2</f>
-        <v>763.78593215639148</v>
+        <v>76.378593215639157</v>
       </c>
       <c r="R2" s="2">
         <f>'Investment Cost NREL, USD'!R2/'Conversion rate'!$B$2</f>
-        <v>749.0923375543025</v>
+        <v>74.90923375543025</v>
       </c>
       <c r="S2" s="2">
         <f>'Investment Cost NREL, USD'!S2/'Conversion rate'!$B$2</f>
-        <v>734.41445604954242</v>
+        <v>73.441445604954239</v>
       </c>
       <c r="T2" s="2">
         <f>'Investment Cost NREL, USD'!T2/'Conversion rate'!$B$2</f>
-        <v>719.73565024493939</v>
+        <v>71.973565024493936</v>
       </c>
       <c r="U2" s="2">
         <f>'Investment Cost NREL, USD'!U2/'Conversion rate'!$B$2</f>
-        <v>705.05776874017931</v>
+        <v>70.505776874017926</v>
       </c>
       <c r="V2" s="2">
         <f>'Investment Cost NREL, USD'!V2/'Conversion rate'!$B$2</f>
-        <v>690.36417413809033</v>
+        <v>69.036417413809033</v>
       </c>
       <c r="W2" s="2">
         <f>'Investment Cost NREL, USD'!W2/'Conversion rate'!$B$2</f>
-        <v>675.68629263333014</v>
+        <v>67.568629263333023</v>
       </c>
       <c r="X2" s="2">
         <f>'Investment Cost NREL, USD'!X2/'Conversion rate'!$B$2</f>
-        <v>661.0231999260559</v>
+        <v>66.102319992605587</v>
       </c>
       <c r="Y2" s="2">
         <f>'Investment Cost NREL, USD'!Y2/'Conversion rate'!$B$2</f>
-        <v>646.34531842129581</v>
+        <v>64.634531842129576</v>
       </c>
       <c r="Z2" s="2">
         <f>'Investment Cost NREL, USD'!Z2/'Conversion rate'!$B$2</f>
-        <v>631.65172381920695</v>
+        <v>63.165172381920691</v>
       </c>
       <c r="AA2" s="2">
         <f>'Investment Cost NREL, USD'!AA2/'Conversion rate'!$B$2</f>
-        <v>616.97291801460392</v>
+        <v>61.697291801460395</v>
       </c>
       <c r="AB2" s="2">
         <f>'Investment Cost NREL, USD'!AB2/'Conversion rate'!$B$2</f>
-        <v>602.29503650984384</v>
+        <v>60.229503650984377</v>
       </c>
       <c r="AC2" s="2">
         <f>'Investment Cost NREL, USD'!AC2/'Conversion rate'!$B$2</f>
-        <v>587.6162307052407</v>
+        <v>58.761623070524067</v>
       </c>
       <c r="AD2" s="2">
         <f>'Investment Cost NREL, USD'!AD2/'Conversion rate'!$B$2</f>
-        <v>572.92263610315183</v>
+        <v>57.292263610315182</v>
       </c>
       <c r="AE2" s="2">
         <f>'Investment Cost NREL, USD'!AE2/'Conversion rate'!$B$2</f>
-        <v>558.24475459839175</v>
+        <v>55.824475459839171</v>
       </c>
       <c r="AF2" s="2">
         <f>'Investment Cost NREL, USD'!AF2/'Conversion rate'!$B$2</f>
-        <v>543.58258619096023</v>
+        <v>54.358258619096027</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1278,127 +1282,127 @@
       </c>
       <c r="B3" s="3">
         <f>'Investment Cost NREL, USD'!B3/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>146.70967741935482</v>
       </c>
       <c r="C3" s="2">
         <f>'Investment Cost NREL, USD'!C3/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>146.70967741935482</v>
       </c>
       <c r="D3" s="2">
         <f>'Investment Cost NREL, USD'!D3/'Conversion rate'!$B$2</f>
-        <v>1648.9509196783436</v>
+        <v>164.89509196783436</v>
       </c>
       <c r="E3" s="2">
         <f>'Investment Cost NREL, USD'!E3/'Conversion rate'!$B$2</f>
-        <v>1585.6382290415008</v>
+        <v>158.5638229041501</v>
       </c>
       <c r="F3" s="2">
         <f>'Investment Cost NREL, USD'!F3/'Conversion rate'!$B$2</f>
-        <v>1514.7194749976893</v>
+        <v>151.47194749976893</v>
       </c>
       <c r="G3" s="2">
         <f>'Investment Cost NREL, USD'!G3/'Conversion rate'!$B$2</f>
-        <v>1327.45817543211</v>
+        <v>132.74581754321099</v>
       </c>
       <c r="H3" s="2">
         <f>'Investment Cost NREL, USD'!H3/'Conversion rate'!$B$2</f>
-        <v>1284.516129032258</v>
+        <v>128.45161290322579</v>
       </c>
       <c r="I3" s="2">
         <f>'Investment Cost NREL, USD'!I3/'Conversion rate'!$B$2</f>
-        <v>1241.5713097328774</v>
+        <v>124.15713097328774</v>
       </c>
       <c r="J3" s="2">
         <f>'Investment Cost NREL, USD'!J3/'Conversion rate'!$B$2</f>
-        <v>1198.6227932341251</v>
+        <v>119.86227932341251</v>
       </c>
       <c r="K3" s="2">
         <f>'Investment Cost NREL, USD'!K3/'Conversion rate'!$B$2</f>
-        <v>1155.6705795360012</v>
+        <v>115.56705795360013</v>
       </c>
       <c r="L3" s="2">
         <f>'Investment Cost NREL, USD'!L3/'Conversion rate'!$B$2</f>
-        <v>1112.7137443386634</v>
+        <v>111.27137443386634</v>
       </c>
       <c r="M3" s="2">
         <f>'Investment Cost NREL, USD'!M3/'Conversion rate'!$B$2</f>
-        <v>1095.5522691561141</v>
+        <v>109.55522691561141</v>
       </c>
       <c r="N3" s="2">
         <f>'Investment Cost NREL, USD'!N3/'Conversion rate'!$B$2</f>
-        <v>1078.3917182734078</v>
+        <v>107.83917182734078</v>
       </c>
       <c r="O3" s="2">
         <f>'Investment Cost NREL, USD'!O3/'Conversion rate'!$B$2</f>
-        <v>1061.2311673907013</v>
+        <v>106.12311673907014</v>
       </c>
       <c r="P3" s="2">
         <f>'Investment Cost NREL, USD'!P3/'Conversion rate'!$B$2</f>
-        <v>1044.0706165079951</v>
+        <v>104.40706165079951</v>
       </c>
       <c r="Q3" s="2">
         <f>'Investment Cost NREL, USD'!Q3/'Conversion rate'!$B$2</f>
-        <v>1026.9119142249747</v>
+        <v>102.69119142249745</v>
       </c>
       <c r="R3" s="2">
         <f>'Investment Cost NREL, USD'!R3/'Conversion rate'!$B$2</f>
-        <v>1009.7532119419539</v>
+        <v>100.97532119419539</v>
       </c>
       <c r="S3" s="2">
         <f>'Investment Cost NREL, USD'!S3/'Conversion rate'!$B$2</f>
-        <v>992.59450965893325</v>
+        <v>99.259450965893322</v>
       </c>
       <c r="T3" s="2">
         <f>'Investment Cost NREL, USD'!T3/'Conversion rate'!$B$2</f>
-        <v>975.43765597559843</v>
+        <v>97.54376559755984</v>
       </c>
       <c r="U3" s="2">
         <f>'Investment Cost NREL, USD'!U3/'Conversion rate'!$B$2</f>
-        <v>958.28080229226339</v>
+        <v>95.828080229226344</v>
       </c>
       <c r="V3" s="2">
         <f>'Investment Cost NREL, USD'!V3/'Conversion rate'!$B$2</f>
-        <v>941.12487290877152</v>
+        <v>94.112487290877155</v>
       </c>
       <c r="W3" s="2">
         <f>'Investment Cost NREL, USD'!W3/'Conversion rate'!$B$2</f>
-        <v>923.96986782512238</v>
+        <v>92.396986782512244</v>
       </c>
       <c r="X3" s="2">
         <f>'Investment Cost NREL, USD'!X3/'Conversion rate'!$B$2</f>
-        <v>906.81578704131607</v>
+        <v>90.68157870413161</v>
       </c>
       <c r="Y3" s="2">
         <f>'Investment Cost NREL, USD'!Y3/'Conversion rate'!$B$2</f>
-        <v>889.66263055735271</v>
+        <v>88.966263055735268</v>
       </c>
       <c r="Z3" s="2">
         <f>'Investment Cost NREL, USD'!Z3/'Conversion rate'!$B$2</f>
-        <v>872.50947407338936</v>
+        <v>87.250947407338927</v>
       </c>
       <c r="AA3" s="2">
         <f>'Investment Cost NREL, USD'!AA3/'Conversion rate'!$B$2</f>
-        <v>855.35816618911167</v>
+        <v>85.53581661891117</v>
       </c>
       <c r="AB3" s="2">
         <f>'Investment Cost NREL, USD'!AB3/'Conversion rate'!$B$2</f>
-        <v>838.20685830483399</v>
+        <v>83.820685830483399</v>
       </c>
       <c r="AC3" s="2">
         <f>'Investment Cost NREL, USD'!AC3/'Conversion rate'!$B$2</f>
-        <v>821.05739902024209</v>
+        <v>82.105739902024212</v>
       </c>
       <c r="AD3" s="2">
         <f>'Investment Cost NREL, USD'!AD3/'Conversion rate'!$B$2</f>
-        <v>803.90886403549302</v>
+        <v>80.390886403549302</v>
       </c>
       <c r="AE3" s="2">
         <f>'Investment Cost NREL, USD'!AE3/'Conversion rate'!$B$2</f>
-        <v>786.76125335058691</v>
+        <v>78.676125335058686</v>
       </c>
       <c r="AF3" s="2">
         <f>'Investment Cost NREL, USD'!AF3/'Conversion rate'!$B$2</f>
-        <v>769.61456696552352</v>
+        <v>76.961456696552347</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -1407,127 +1411,127 @@
       </c>
       <c r="B4" s="3">
         <f>'Investment Cost NREL, USD'!B4/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>146.70967741935482</v>
       </c>
       <c r="C4" s="2">
         <f>'Investment Cost NREL, USD'!C4/'Conversion rate'!$B$2</f>
-        <v>1467.0967741935483</v>
+        <v>146.70967741935482</v>
       </c>
       <c r="D4" s="2">
         <f>'Investment Cost NREL, USD'!D4/'Conversion rate'!$B$2</f>
-        <v>1648.9509196783436</v>
+        <v>164.89509196783436</v>
       </c>
       <c r="E4" s="2">
         <f>'Investment Cost NREL, USD'!E4/'Conversion rate'!$B$2</f>
-        <v>1710.0286532951288</v>
+        <v>171.00286532951287</v>
       </c>
       <c r="F4" s="2">
         <f>'Investment Cost NREL, USD'!F4/'Conversion rate'!$B$2</f>
-        <v>1722.2368056197429</v>
+        <v>172.22368056197431</v>
       </c>
       <c r="G4" s="2">
         <f>'Investment Cost NREL, USD'!G4/'Conversion rate'!$B$2</f>
-        <v>1697.8010906738145</v>
+        <v>169.78010906738146</v>
       </c>
       <c r="H4" s="2">
         <f>'Investment Cost NREL, USD'!H4/'Conversion rate'!$B$2</f>
-        <v>1634.2185044828541</v>
+        <v>163.4218504482854</v>
       </c>
       <c r="I4" s="2">
         <f>'Investment Cost NREL, USD'!I4/'Conversion rate'!$B$2</f>
-        <v>1570.6368425917365</v>
+        <v>157.06368425917367</v>
       </c>
       <c r="J4" s="2">
         <f>'Investment Cost NREL, USD'!J4/'Conversion rate'!$B$2</f>
-        <v>1507.0561050004619</v>
+        <v>150.70561050004619</v>
       </c>
       <c r="K4" s="2">
         <f>'Investment Cost NREL, USD'!K4/'Conversion rate'!$B$2</f>
-        <v>1443.4762917090302</v>
+        <v>144.34762917090302</v>
       </c>
       <c r="L4" s="2">
         <f>'Investment Cost NREL, USD'!L4/'Conversion rate'!$B$2</f>
-        <v>1379.8974027174415</v>
+        <v>137.98974027174415</v>
       </c>
       <c r="M4" s="2">
         <f>'Investment Cost NREL, USD'!M4/'Conversion rate'!$B$2</f>
-        <v>1370.4501340234772</v>
+        <v>137.04501340234771</v>
       </c>
       <c r="N4" s="2">
         <f>'Investment Cost NREL, USD'!N4/'Conversion rate'!$B$2</f>
-        <v>1361.00194102967</v>
+        <v>136.10019410296701</v>
       </c>
       <c r="O4" s="2">
         <f>'Investment Cost NREL, USD'!O4/'Conversion rate'!$B$2</f>
-        <v>1351.5537480358628</v>
+        <v>135.15537480358628</v>
       </c>
       <c r="P4" s="2">
         <f>'Investment Cost NREL, USD'!P4/'Conversion rate'!$B$2</f>
-        <v>1342.1064793418984</v>
+        <v>134.21064793418984</v>
       </c>
       <c r="Q4" s="2">
         <f>'Investment Cost NREL, USD'!Q4/'Conversion rate'!$B$2</f>
-        <v>1332.6582863480912</v>
+        <v>133.26582863480914</v>
       </c>
       <c r="R4" s="2">
         <f>'Investment Cost NREL, USD'!R4/'Conversion rate'!$B$2</f>
-        <v>1323.210093354284</v>
+        <v>132.32100933542839</v>
       </c>
       <c r="S4" s="2">
         <f>'Investment Cost NREL, USD'!S4/'Conversion rate'!$B$2</f>
-        <v>1313.7628246603197</v>
+        <v>131.37628246603197</v>
       </c>
       <c r="T4" s="2">
         <f>'Investment Cost NREL, USD'!T4/'Conversion rate'!$B$2</f>
-        <v>1304.3146316665125</v>
+        <v>130.43146316665124</v>
       </c>
       <c r="U4" s="2">
         <f>'Investment Cost NREL, USD'!U4/'Conversion rate'!$B$2</f>
-        <v>1294.8673629725481</v>
+        <v>129.48673629725482</v>
       </c>
       <c r="V4" s="2">
         <f>'Investment Cost NREL, USD'!V4/'Conversion rate'!$B$2</f>
-        <v>1285.4191699787409</v>
+        <v>128.5419169978741</v>
       </c>
       <c r="W4" s="2">
         <f>'Investment Cost NREL, USD'!W4/'Conversion rate'!$B$2</f>
-        <v>1275.9709769849337</v>
+        <v>127.59709769849337</v>
       </c>
       <c r="X4" s="2">
         <f>'Investment Cost NREL, USD'!X4/'Conversion rate'!$B$2</f>
-        <v>1266.5237082909694</v>
+        <v>126.65237082909694</v>
       </c>
       <c r="Y4" s="2">
         <f>'Investment Cost NREL, USD'!Y4/'Conversion rate'!$B$2</f>
-        <v>1257.0755152971624</v>
+        <v>125.70755152971623</v>
       </c>
       <c r="Z4" s="2">
         <f>'Investment Cost NREL, USD'!Z4/'Conversion rate'!$B$2</f>
-        <v>1247.6273223033552</v>
+        <v>124.76273223033552</v>
       </c>
       <c r="AA4" s="2">
         <f>'Investment Cost NREL, USD'!AA4/'Conversion rate'!$B$2</f>
-        <v>1238.1800536093908</v>
+        <v>123.81800536093908</v>
       </c>
       <c r="AB4" s="2">
         <f>'Investment Cost NREL, USD'!AB4/'Conversion rate'!$B$2</f>
-        <v>1228.7318606155836</v>
+        <v>122.87318606155836</v>
       </c>
       <c r="AC4" s="2">
         <f>'Investment Cost NREL, USD'!AC4/'Conversion rate'!$B$2</f>
-        <v>1219.2836676217764</v>
+        <v>121.92836676217765</v>
       </c>
       <c r="AD4" s="2">
         <f>'Investment Cost NREL, USD'!AD4/'Conversion rate'!$B$2</f>
-        <v>1209.8363989278121</v>
+        <v>120.98363989278121</v>
       </c>
       <c r="AE4" s="2">
         <f>'Investment Cost NREL, USD'!AE4/'Conversion rate'!$B$2</f>
-        <v>1200.3882059340049</v>
+        <v>120.03882059340049</v>
       </c>
       <c r="AF4" s="2">
         <f>'Investment Cost NREL, USD'!AF4/'Conversion rate'!$B$2</f>
-        <v>1190.9400129401977</v>
+        <v>119.09400129401978</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1544,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1662,127 +1666,127 @@
       </c>
       <c r="B2" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>29567.072712233996</v>
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>295670.72712234</v>
+        <v>29567.072712233996</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>332320.6253236754</v>
+        <v>33232.062532367549</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>319560.92902691476</v>
+        <v>31956.092902691471</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>305268.34796233533</v>
+        <v>30526.834796233536</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>267528.72125307191</v>
+        <v>26752.872125307182</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>258874.41411634957</v>
+        <v>25887.441411634954</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>250219.54814449497</v>
+        <v>25021.954814449498</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>241563.93705913064</v>
+        <v>24156.393705913066</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>232907.58086025662</v>
+        <v>23290.758086025668</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>224250.2932694956</v>
+        <v>22425.029326949556</v>
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>220791.66263587188</v>
+        <v>22079.166263587187</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>217333.21828062556</v>
+        <v>21733.321828062555</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>213874.77392537927</v>
+        <v>21387.477392537934</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>210416.32957013301</v>
+        <v>21041.632957013302</v>
       </c>
       <c r="Q2" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>206958.25777164166</v>
+        <v>20695.825777164158</v>
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>203500.18597315016</v>
+        <v>20350.018597315018</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>200042.11417465872</v>
+        <v>20004.211417465871</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>196584.41493292214</v>
+        <v>19658.441493292219</v>
       </c>
       <c r="U2" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>193126.71569118553</v>
+        <v>19312.671569118556</v>
       </c>
       <c r="V2" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>189669.20272782643</v>
+        <v>18966.920272782641</v>
       </c>
       <c r="W2" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186211.8760428447</v>
+        <v>18621.187604284471</v>
       </c>
       <c r="X2" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>182754.73563624034</v>
+        <v>18275.473563624037</v>
       </c>
       <c r="Y2" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>179297.78150801346</v>
+        <v>17929.778150801347</v>
       </c>
       <c r="Z2" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>175840.82737978661</v>
+        <v>17584.082737978657</v>
       </c>
       <c r="AA2" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>172384.24580831456</v>
+        <v>17238.424580831455</v>
       </c>
       <c r="AB2" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>168927.66423684251</v>
+        <v>16892.76642368425</v>
       </c>
       <c r="AC2" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>165471.45522212531</v>
+        <v>16547.145522212533</v>
       </c>
       <c r="AD2" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>162015.43248578554</v>
+        <v>16201.543248578555</v>
       </c>
       <c r="AE2" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>158559.59602782319</v>
+        <v>15855.959602782321</v>
       </c>
       <c r="AF2" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>155103.94584823828</v>
+        <v>15510.394584823824</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1791,127 +1795,127 @@
       </c>
       <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>292856.51176780206</v>
+        <v>29285.651176780204</v>
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>292856.51176780206</v>
+        <v>29285.651176780204</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>329157.57358866697</v>
+        <v>32915.757358866707</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>316519.32500364655</v>
+        <v>31651.932500364655</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>302362.78175883851</v>
+        <v>30236.278175883846</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>264982.36354475952</v>
+        <v>26498.236354475954</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>256410.4287289771</v>
+        <v>25641.042872897706</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>247837.9403970956</v>
+        <v>24783.794039709559</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>239264.71404374859</v>
+        <v>23926.471404374861</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>230690.74966893613</v>
+        <v>23069.074966893619</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>222115.86276729195</v>
+        <v>22211.586276729195</v>
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>218690.15163006057</v>
+        <v>21869.015163006061</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>215264.62499819553</v>
+        <v>21526.462499819554</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>211839.09836633052</v>
+        <v>21183.909836633051</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>208413.57173446551</v>
+        <v>20841.357173446551</v>
       </c>
       <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>204988.41411333327</v>
+        <v>20498.841411333324</v>
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>201563.25649220095</v>
+        <v>20156.325649220093</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>198138.09887106865</v>
+        <v>19813.809887106861</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>194713.31026066907</v>
+        <v>19471.331026066906</v>
       </c>
       <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>191288.52165026945</v>
+        <v>19128.852165026947</v>
       </c>
       <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>187863.91754523627</v>
+        <v>18786.391754523629</v>
       </c>
       <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>184439.49794556946</v>
+        <v>18443.949794556946</v>
       </c>
       <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>181015.26285126893</v>
+        <v>18101.526285126893</v>
       </c>
       <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>177591.2122623348</v>
+        <v>17759.121226233481</v>
       </c>
       <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>174167.1616734007</v>
+        <v>17416.71616734007</v>
       </c>
       <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>170743.48009519925</v>
+        <v>17074.348009519927</v>
       </c>
       <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>167319.79851699786</v>
+        <v>16731.979851699787</v>
       </c>
       <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>163896.48594952916</v>
+        <v>16389.64859495292</v>
       </c>
       <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>160473.35788742686</v>
+        <v>16047.335788742688</v>
       </c>
       <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>157050.41433069092</v>
+        <v>15705.041433069093</v>
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>153627.6552793213</v>
+        <v>15362.76552793213</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B776A1D-50BA-48D4-928B-2859A795E87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1866D65-8F12-4153-B412-B96C9B192731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1543,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1866D65-8F12-4153-B412-B96C9B192731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F0CF5-631C-4103-99EC-7C3DA173556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43500" yWindow="-6720" windowWidth="13830" windowHeight="8550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,20 +512,16 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <f>C2*10</f>
-        <v>10.819000000000001</v>
-      </c>
-      <c r="C2">
         <v>1.0819000000000001</v>
       </c>
     </row>
@@ -1153,127 +1149,127 @@
       </c>
       <c r="B2" s="3">
         <f>'Investment Cost NREL, USD'!B2/'Conversion rate'!$B$2</f>
-        <v>146.70967741935482</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="C2" s="2">
         <f>'Investment Cost NREL, USD'!C2/'Conversion rate'!$B$2</f>
-        <v>146.70967741935482</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="D2" s="2">
         <f>'Investment Cost NREL, USD'!D2/'Conversion rate'!$B$2</f>
-        <v>164.89509196783436</v>
+        <v>1648.9509196783436</v>
       </c>
       <c r="E2" s="2">
         <f>'Investment Cost NREL, USD'!E2/'Conversion rate'!$B$2</f>
-        <v>118.62547370366947</v>
+        <v>1186.2547370366947</v>
       </c>
       <c r="F2" s="2">
         <f>'Investment Cost NREL, USD'!F2/'Conversion rate'!$B$2</f>
-        <v>111.96681763564098</v>
+        <v>1119.66817635641</v>
       </c>
       <c r="G2" s="2">
         <f>'Investment Cost NREL, USD'!G2/'Conversion rate'!$B$2</f>
-        <v>106.27026527405491</v>
+        <v>1062.702652740549</v>
       </c>
       <c r="H2" s="2">
         <f>'Investment Cost NREL, USD'!H2/'Conversion rate'!$B$2</f>
-        <v>101.75949718088546</v>
+        <v>1017.5949718088547</v>
       </c>
       <c r="I2" s="2">
         <f>'Investment Cost NREL, USD'!I2/'Conversion rate'!$B$2</f>
-        <v>97.248729087716043</v>
+        <v>972.48729087716049</v>
       </c>
       <c r="J2" s="2">
         <f>'Investment Cost NREL, USD'!J2/'Conversion rate'!$B$2</f>
-        <v>92.737960994546626</v>
+        <v>927.3796099454662</v>
       </c>
       <c r="K2" s="2">
         <f>'Investment Cost NREL, USD'!K2/'Conversion rate'!$B$2</f>
-        <v>88.227008041408624</v>
+        <v>882.27008041408624</v>
       </c>
       <c r="L2" s="2">
         <f>'Investment Cost NREL, USD'!L2/'Conversion rate'!$B$2</f>
-        <v>83.717718827987795</v>
+        <v>837.1771882798779</v>
       </c>
       <c r="M2" s="2">
         <f>'Investment Cost NREL, USD'!M2/'Conversion rate'!$B$2</f>
-        <v>82.249838247527492</v>
+        <v>822.49838247527487</v>
       </c>
       <c r="N2" s="2">
         <f>'Investment Cost NREL, USD'!N2/'Conversion rate'!$B$2</f>
-        <v>80.781957667067189</v>
+        <v>807.81957667067195</v>
       </c>
       <c r="O2" s="2">
         <f>'Investment Cost NREL, USD'!O2/'Conversion rate'!$B$2</f>
-        <v>79.312690636842575</v>
+        <v>793.12690636842581</v>
       </c>
       <c r="P2" s="2">
         <f>'Investment Cost NREL, USD'!P2/'Conversion rate'!$B$2</f>
-        <v>77.844902486366564</v>
+        <v>778.44902486366561</v>
       </c>
       <c r="Q2" s="2">
         <f>'Investment Cost NREL, USD'!Q2/'Conversion rate'!$B$2</f>
-        <v>76.378593215639157</v>
+        <v>763.78593215639148</v>
       </c>
       <c r="R2" s="2">
         <f>'Investment Cost NREL, USD'!R2/'Conversion rate'!$B$2</f>
-        <v>74.90923375543025</v>
+        <v>749.0923375543025</v>
       </c>
       <c r="S2" s="2">
         <f>'Investment Cost NREL, USD'!S2/'Conversion rate'!$B$2</f>
-        <v>73.441445604954239</v>
+        <v>734.41445604954242</v>
       </c>
       <c r="T2" s="2">
         <f>'Investment Cost NREL, USD'!T2/'Conversion rate'!$B$2</f>
-        <v>71.973565024493936</v>
+        <v>719.73565024493939</v>
       </c>
       <c r="U2" s="2">
         <f>'Investment Cost NREL, USD'!U2/'Conversion rate'!$B$2</f>
-        <v>70.505776874017926</v>
+        <v>705.05776874017931</v>
       </c>
       <c r="V2" s="2">
         <f>'Investment Cost NREL, USD'!V2/'Conversion rate'!$B$2</f>
-        <v>69.036417413809033</v>
+        <v>690.36417413809033</v>
       </c>
       <c r="W2" s="2">
         <f>'Investment Cost NREL, USD'!W2/'Conversion rate'!$B$2</f>
-        <v>67.568629263333023</v>
+        <v>675.68629263333014</v>
       </c>
       <c r="X2" s="2">
         <f>'Investment Cost NREL, USD'!X2/'Conversion rate'!$B$2</f>
-        <v>66.102319992605587</v>
+        <v>661.0231999260559</v>
       </c>
       <c r="Y2" s="2">
         <f>'Investment Cost NREL, USD'!Y2/'Conversion rate'!$B$2</f>
-        <v>64.634531842129576</v>
+        <v>646.34531842129581</v>
       </c>
       <c r="Z2" s="2">
         <f>'Investment Cost NREL, USD'!Z2/'Conversion rate'!$B$2</f>
-        <v>63.165172381920691</v>
+        <v>631.65172381920695</v>
       </c>
       <c r="AA2" s="2">
         <f>'Investment Cost NREL, USD'!AA2/'Conversion rate'!$B$2</f>
-        <v>61.697291801460395</v>
+        <v>616.97291801460392</v>
       </c>
       <c r="AB2" s="2">
         <f>'Investment Cost NREL, USD'!AB2/'Conversion rate'!$B$2</f>
-        <v>60.229503650984377</v>
+        <v>602.29503650984384</v>
       </c>
       <c r="AC2" s="2">
         <f>'Investment Cost NREL, USD'!AC2/'Conversion rate'!$B$2</f>
-        <v>58.761623070524067</v>
+        <v>587.6162307052407</v>
       </c>
       <c r="AD2" s="2">
         <f>'Investment Cost NREL, USD'!AD2/'Conversion rate'!$B$2</f>
-        <v>57.292263610315182</v>
+        <v>572.92263610315183</v>
       </c>
       <c r="AE2" s="2">
         <f>'Investment Cost NREL, USD'!AE2/'Conversion rate'!$B$2</f>
-        <v>55.824475459839171</v>
+        <v>558.24475459839175</v>
       </c>
       <c r="AF2" s="2">
         <f>'Investment Cost NREL, USD'!AF2/'Conversion rate'!$B$2</f>
-        <v>54.358258619096027</v>
+        <v>543.58258619096023</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1282,127 +1278,127 @@
       </c>
       <c r="B3" s="3">
         <f>'Investment Cost NREL, USD'!B3/'Conversion rate'!$B$2</f>
-        <v>146.70967741935482</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="C3" s="2">
         <f>'Investment Cost NREL, USD'!C3/'Conversion rate'!$B$2</f>
-        <v>146.70967741935482</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="D3" s="2">
         <f>'Investment Cost NREL, USD'!D3/'Conversion rate'!$B$2</f>
-        <v>164.89509196783436</v>
+        <v>1648.9509196783436</v>
       </c>
       <c r="E3" s="2">
         <f>'Investment Cost NREL, USD'!E3/'Conversion rate'!$B$2</f>
-        <v>158.5638229041501</v>
+        <v>1585.6382290415008</v>
       </c>
       <c r="F3" s="2">
         <f>'Investment Cost NREL, USD'!F3/'Conversion rate'!$B$2</f>
-        <v>151.47194749976893</v>
+        <v>1514.7194749976893</v>
       </c>
       <c r="G3" s="2">
         <f>'Investment Cost NREL, USD'!G3/'Conversion rate'!$B$2</f>
-        <v>132.74581754321099</v>
+        <v>1327.45817543211</v>
       </c>
       <c r="H3" s="2">
         <f>'Investment Cost NREL, USD'!H3/'Conversion rate'!$B$2</f>
-        <v>128.45161290322579</v>
+        <v>1284.516129032258</v>
       </c>
       <c r="I3" s="2">
         <f>'Investment Cost NREL, USD'!I3/'Conversion rate'!$B$2</f>
-        <v>124.15713097328774</v>
+        <v>1241.5713097328774</v>
       </c>
       <c r="J3" s="2">
         <f>'Investment Cost NREL, USD'!J3/'Conversion rate'!$B$2</f>
-        <v>119.86227932341251</v>
+        <v>1198.6227932341251</v>
       </c>
       <c r="K3" s="2">
         <f>'Investment Cost NREL, USD'!K3/'Conversion rate'!$B$2</f>
-        <v>115.56705795360013</v>
+        <v>1155.6705795360012</v>
       </c>
       <c r="L3" s="2">
         <f>'Investment Cost NREL, USD'!L3/'Conversion rate'!$B$2</f>
-        <v>111.27137443386634</v>
+        <v>1112.7137443386634</v>
       </c>
       <c r="M3" s="2">
         <f>'Investment Cost NREL, USD'!M3/'Conversion rate'!$B$2</f>
-        <v>109.55522691561141</v>
+        <v>1095.5522691561141</v>
       </c>
       <c r="N3" s="2">
         <f>'Investment Cost NREL, USD'!N3/'Conversion rate'!$B$2</f>
-        <v>107.83917182734078</v>
+        <v>1078.3917182734078</v>
       </c>
       <c r="O3" s="2">
         <f>'Investment Cost NREL, USD'!O3/'Conversion rate'!$B$2</f>
-        <v>106.12311673907014</v>
+        <v>1061.2311673907013</v>
       </c>
       <c r="P3" s="2">
         <f>'Investment Cost NREL, USD'!P3/'Conversion rate'!$B$2</f>
-        <v>104.40706165079951</v>
+        <v>1044.0706165079951</v>
       </c>
       <c r="Q3" s="2">
         <f>'Investment Cost NREL, USD'!Q3/'Conversion rate'!$B$2</f>
-        <v>102.69119142249745</v>
+        <v>1026.9119142249747</v>
       </c>
       <c r="R3" s="2">
         <f>'Investment Cost NREL, USD'!R3/'Conversion rate'!$B$2</f>
-        <v>100.97532119419539</v>
+        <v>1009.7532119419539</v>
       </c>
       <c r="S3" s="2">
         <f>'Investment Cost NREL, USD'!S3/'Conversion rate'!$B$2</f>
-        <v>99.259450965893322</v>
+        <v>992.59450965893325</v>
       </c>
       <c r="T3" s="2">
         <f>'Investment Cost NREL, USD'!T3/'Conversion rate'!$B$2</f>
-        <v>97.54376559755984</v>
+        <v>975.43765597559843</v>
       </c>
       <c r="U3" s="2">
         <f>'Investment Cost NREL, USD'!U3/'Conversion rate'!$B$2</f>
-        <v>95.828080229226344</v>
+        <v>958.28080229226339</v>
       </c>
       <c r="V3" s="2">
         <f>'Investment Cost NREL, USD'!V3/'Conversion rate'!$B$2</f>
-        <v>94.112487290877155</v>
+        <v>941.12487290877152</v>
       </c>
       <c r="W3" s="2">
         <f>'Investment Cost NREL, USD'!W3/'Conversion rate'!$B$2</f>
-        <v>92.396986782512244</v>
+        <v>923.96986782512238</v>
       </c>
       <c r="X3" s="2">
         <f>'Investment Cost NREL, USD'!X3/'Conversion rate'!$B$2</f>
-        <v>90.68157870413161</v>
+        <v>906.81578704131607</v>
       </c>
       <c r="Y3" s="2">
         <f>'Investment Cost NREL, USD'!Y3/'Conversion rate'!$B$2</f>
-        <v>88.966263055735268</v>
+        <v>889.66263055735271</v>
       </c>
       <c r="Z3" s="2">
         <f>'Investment Cost NREL, USD'!Z3/'Conversion rate'!$B$2</f>
-        <v>87.250947407338927</v>
+        <v>872.50947407338936</v>
       </c>
       <c r="AA3" s="2">
         <f>'Investment Cost NREL, USD'!AA3/'Conversion rate'!$B$2</f>
-        <v>85.53581661891117</v>
+        <v>855.35816618911167</v>
       </c>
       <c r="AB3" s="2">
         <f>'Investment Cost NREL, USD'!AB3/'Conversion rate'!$B$2</f>
-        <v>83.820685830483399</v>
+        <v>838.20685830483399</v>
       </c>
       <c r="AC3" s="2">
         <f>'Investment Cost NREL, USD'!AC3/'Conversion rate'!$B$2</f>
-        <v>82.105739902024212</v>
+        <v>821.05739902024209</v>
       </c>
       <c r="AD3" s="2">
         <f>'Investment Cost NREL, USD'!AD3/'Conversion rate'!$B$2</f>
-        <v>80.390886403549302</v>
+        <v>803.90886403549302</v>
       </c>
       <c r="AE3" s="2">
         <f>'Investment Cost NREL, USD'!AE3/'Conversion rate'!$B$2</f>
-        <v>78.676125335058686</v>
+        <v>786.76125335058691</v>
       </c>
       <c r="AF3" s="2">
         <f>'Investment Cost NREL, USD'!AF3/'Conversion rate'!$B$2</f>
-        <v>76.961456696552347</v>
+        <v>769.61456696552352</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -1411,127 +1407,127 @@
       </c>
       <c r="B4" s="3">
         <f>'Investment Cost NREL, USD'!B4/'Conversion rate'!$B$2</f>
-        <v>146.70967741935482</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="C4" s="2">
         <f>'Investment Cost NREL, USD'!C4/'Conversion rate'!$B$2</f>
-        <v>146.70967741935482</v>
+        <v>1467.0967741935483</v>
       </c>
       <c r="D4" s="2">
         <f>'Investment Cost NREL, USD'!D4/'Conversion rate'!$B$2</f>
-        <v>164.89509196783436</v>
+        <v>1648.9509196783436</v>
       </c>
       <c r="E4" s="2">
         <f>'Investment Cost NREL, USD'!E4/'Conversion rate'!$B$2</f>
-        <v>171.00286532951287</v>
+        <v>1710.0286532951288</v>
       </c>
       <c r="F4" s="2">
         <f>'Investment Cost NREL, USD'!F4/'Conversion rate'!$B$2</f>
-        <v>172.22368056197431</v>
+        <v>1722.2368056197429</v>
       </c>
       <c r="G4" s="2">
         <f>'Investment Cost NREL, USD'!G4/'Conversion rate'!$B$2</f>
-        <v>169.78010906738146</v>
+        <v>1697.8010906738145</v>
       </c>
       <c r="H4" s="2">
         <f>'Investment Cost NREL, USD'!H4/'Conversion rate'!$B$2</f>
-        <v>163.4218504482854</v>
+        <v>1634.2185044828541</v>
       </c>
       <c r="I4" s="2">
         <f>'Investment Cost NREL, USD'!I4/'Conversion rate'!$B$2</f>
-        <v>157.06368425917367</v>
+        <v>1570.6368425917365</v>
       </c>
       <c r="J4" s="2">
         <f>'Investment Cost NREL, USD'!J4/'Conversion rate'!$B$2</f>
-        <v>150.70561050004619</v>
+        <v>1507.0561050004619</v>
       </c>
       <c r="K4" s="2">
         <f>'Investment Cost NREL, USD'!K4/'Conversion rate'!$B$2</f>
-        <v>144.34762917090302</v>
+        <v>1443.4762917090302</v>
       </c>
       <c r="L4" s="2">
         <f>'Investment Cost NREL, USD'!L4/'Conversion rate'!$B$2</f>
-        <v>137.98974027174415</v>
+        <v>1379.8974027174415</v>
       </c>
       <c r="M4" s="2">
         <f>'Investment Cost NREL, USD'!M4/'Conversion rate'!$B$2</f>
-        <v>137.04501340234771</v>
+        <v>1370.4501340234772</v>
       </c>
       <c r="N4" s="2">
         <f>'Investment Cost NREL, USD'!N4/'Conversion rate'!$B$2</f>
-        <v>136.10019410296701</v>
+        <v>1361.00194102967</v>
       </c>
       <c r="O4" s="2">
         <f>'Investment Cost NREL, USD'!O4/'Conversion rate'!$B$2</f>
-        <v>135.15537480358628</v>
+        <v>1351.5537480358628</v>
       </c>
       <c r="P4" s="2">
         <f>'Investment Cost NREL, USD'!P4/'Conversion rate'!$B$2</f>
-        <v>134.21064793418984</v>
+        <v>1342.1064793418984</v>
       </c>
       <c r="Q4" s="2">
         <f>'Investment Cost NREL, USD'!Q4/'Conversion rate'!$B$2</f>
-        <v>133.26582863480914</v>
+        <v>1332.6582863480912</v>
       </c>
       <c r="R4" s="2">
         <f>'Investment Cost NREL, USD'!R4/'Conversion rate'!$B$2</f>
-        <v>132.32100933542839</v>
+        <v>1323.210093354284</v>
       </c>
       <c r="S4" s="2">
         <f>'Investment Cost NREL, USD'!S4/'Conversion rate'!$B$2</f>
-        <v>131.37628246603197</v>
+        <v>1313.7628246603197</v>
       </c>
       <c r="T4" s="2">
         <f>'Investment Cost NREL, USD'!T4/'Conversion rate'!$B$2</f>
-        <v>130.43146316665124</v>
+        <v>1304.3146316665125</v>
       </c>
       <c r="U4" s="2">
         <f>'Investment Cost NREL, USD'!U4/'Conversion rate'!$B$2</f>
-        <v>129.48673629725482</v>
+        <v>1294.8673629725481</v>
       </c>
       <c r="V4" s="2">
         <f>'Investment Cost NREL, USD'!V4/'Conversion rate'!$B$2</f>
-        <v>128.5419169978741</v>
+        <v>1285.4191699787409</v>
       </c>
       <c r="W4" s="2">
         <f>'Investment Cost NREL, USD'!W4/'Conversion rate'!$B$2</f>
-        <v>127.59709769849337</v>
+        <v>1275.9709769849337</v>
       </c>
       <c r="X4" s="2">
         <f>'Investment Cost NREL, USD'!X4/'Conversion rate'!$B$2</f>
-        <v>126.65237082909694</v>
+        <v>1266.5237082909694</v>
       </c>
       <c r="Y4" s="2">
         <f>'Investment Cost NREL, USD'!Y4/'Conversion rate'!$B$2</f>
-        <v>125.70755152971623</v>
+        <v>1257.0755152971624</v>
       </c>
       <c r="Z4" s="2">
         <f>'Investment Cost NREL, USD'!Z4/'Conversion rate'!$B$2</f>
-        <v>124.76273223033552</v>
+        <v>1247.6273223033552</v>
       </c>
       <c r="AA4" s="2">
         <f>'Investment Cost NREL, USD'!AA4/'Conversion rate'!$B$2</f>
-        <v>123.81800536093908</v>
+        <v>1238.1800536093908</v>
       </c>
       <c r="AB4" s="2">
         <f>'Investment Cost NREL, USD'!AB4/'Conversion rate'!$B$2</f>
-        <v>122.87318606155836</v>
+        <v>1228.7318606155836</v>
       </c>
       <c r="AC4" s="2">
         <f>'Investment Cost NREL, USD'!AC4/'Conversion rate'!$B$2</f>
-        <v>121.92836676217765</v>
+        <v>1219.2836676217764</v>
       </c>
       <c r="AD4" s="2">
         <f>'Investment Cost NREL, USD'!AD4/'Conversion rate'!$B$2</f>
-        <v>120.98363989278121</v>
+        <v>1209.8363989278121</v>
       </c>
       <c r="AE4" s="2">
         <f>'Investment Cost NREL, USD'!AE4/'Conversion rate'!$B$2</f>
-        <v>120.03882059340049</v>
+        <v>1200.3882059340049</v>
       </c>
       <c r="AF4" s="2">
         <f>'Investment Cost NREL, USD'!AF4/'Conversion rate'!$B$2</f>
-        <v>119.09400129401978</v>
+        <v>1190.9400129401977</v>
       </c>
     </row>
   </sheetData>
@@ -1666,127 +1662,127 @@
       </c>
       <c r="B2" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>29567.072712233996</v>
+        <v>295670.72712234</v>
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>29567.072712233996</v>
+        <v>295670.72712234</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>33232.062532367549</v>
+        <v>332320.6253236754</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>31956.092902691471</v>
+        <v>319560.92902691476</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>30526.834796233536</v>
+        <v>305268.34796233533</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>26752.872125307182</v>
+        <v>267528.72125307191</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>25887.441411634954</v>
+        <v>258874.41411634957</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>25021.954814449498</v>
+        <v>250219.54814449497</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>24156.393705913066</v>
+        <v>241563.93705913064</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>23290.758086025668</v>
+        <v>232907.58086025662</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>22425.029326949556</v>
+        <v>224250.2932694956</v>
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>22079.166263587187</v>
+        <v>220791.66263587188</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>21733.321828062555</v>
+        <v>217333.21828062556</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>21387.477392537934</v>
+        <v>213874.77392537927</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>21041.632957013302</v>
+        <v>210416.32957013301</v>
       </c>
       <c r="Q2" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>20695.825777164158</v>
+        <v>206958.25777164166</v>
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>20350.018597315018</v>
+        <v>203500.18597315016</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>20004.211417465871</v>
+        <v>200042.11417465872</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>19658.441493292219</v>
+        <v>196584.41493292214</v>
       </c>
       <c r="U2" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>19312.671569118556</v>
+        <v>193126.71569118553</v>
       </c>
       <c r="V2" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>18966.920272782641</v>
+        <v>189669.20272782643</v>
       </c>
       <c r="W2" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>18621.187604284471</v>
+        <v>186211.8760428447</v>
       </c>
       <c r="X2" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>18275.473563624037</v>
+        <v>182754.73563624034</v>
       </c>
       <c r="Y2" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>17929.778150801347</v>
+        <v>179297.78150801346</v>
       </c>
       <c r="Z2" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>17584.082737978657</v>
+        <v>175840.82737978661</v>
       </c>
       <c r="AA2" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>17238.424580831455</v>
+        <v>172384.24580831456</v>
       </c>
       <c r="AB2" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>16892.76642368425</v>
+        <v>168927.66423684251</v>
       </c>
       <c r="AC2" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>16547.145522212533</v>
+        <v>165471.45522212531</v>
       </c>
       <c r="AD2" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>16201.543248578555</v>
+        <v>162015.43248578554</v>
       </c>
       <c r="AE2" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>15855.959602782321</v>
+        <v>158559.59602782319</v>
       </c>
       <c r="AF2" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>15510.394584823824</v>
+        <v>155103.94584823828</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1795,127 +1791,127 @@
       </c>
       <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>29285.651176780204</v>
+        <v>292856.51176780206</v>
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>29285.651176780204</v>
+        <v>292856.51176780206</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>32915.757358866707</v>
+        <v>329157.57358866697</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>31651.932500364655</v>
+        <v>316519.32500364655</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>30236.278175883846</v>
+        <v>302362.78175883851</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>26498.236354475954</v>
+        <v>264982.36354475952</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>25641.042872897706</v>
+        <v>256410.4287289771</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>24783.794039709559</v>
+        <v>247837.9403970956</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>23926.471404374861</v>
+        <v>239264.71404374859</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>23069.074966893619</v>
+        <v>230690.74966893613</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>22211.586276729195</v>
+        <v>222115.86276729195</v>
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>21869.015163006061</v>
+        <v>218690.15163006057</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>21526.462499819554</v>
+        <v>215264.62499819553</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>21183.909836633051</v>
+        <v>211839.09836633052</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>20841.357173446551</v>
+        <v>208413.57173446551</v>
       </c>
       <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>20498.841411333324</v>
+        <v>204988.41411333327</v>
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>20156.325649220093</v>
+        <v>201563.25649220095</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>19813.809887106861</v>
+        <v>198138.09887106865</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>19471.331026066906</v>
+        <v>194713.31026066907</v>
       </c>
       <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>19128.852165026947</v>
+        <v>191288.52165026945</v>
       </c>
       <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>18786.391754523629</v>
+        <v>187863.91754523627</v>
       </c>
       <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>18443.949794556946</v>
+        <v>184439.49794556946</v>
       </c>
       <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>18101.526285126893</v>
+        <v>181015.26285126893</v>
       </c>
       <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>17759.121226233481</v>
+        <v>177591.2122623348</v>
       </c>
       <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>17416.71616734007</v>
+        <v>174167.1616734007</v>
       </c>
       <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>17074.348009519927</v>
+        <v>170743.48009519925</v>
       </c>
       <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>16731.979851699787</v>
+        <v>167319.79851699786</v>
       </c>
       <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>16389.64859495292</v>
+        <v>163896.48594952916</v>
       </c>
       <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>16047.335788742688</v>
+        <v>160473.35788742686</v>
       </c>
       <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>15705.041433069093</v>
+        <v>157050.41433069092</v>
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>15362.76552793213</v>
+        <v>153627.6552793213</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F0CF5-631C-4103-99EC-7C3DA173556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459D253-808A-40E2-92A9-BAC08097F6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43500" yWindow="-6720" windowWidth="13830" windowHeight="8550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Cost breakdown NREL" sheetId="82" r:id="rId3"/>
     <sheet name="Investment Cost NREL, USD" sheetId="4" r:id="rId4"/>
     <sheet name="Investment Cost NREL, EUR" sheetId="84" r:id="rId5"/>
-    <sheet name="Investment Cost" sheetId="5" r:id="rId6"/>
+    <sheet name="Investment Cost, Power" sheetId="5" r:id="rId6"/>
+    <sheet name="Investment Cost, Capacity" sheetId="85" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>numScenarios</t>
   </si>
@@ -120,15 +121,30 @@
   <si>
     <t>Total Cost (4-h System), [€/KWh]</t>
   </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,16 +498,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -535,7 +548,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1050,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AF4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,6 +1575,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1658,260 +1674,911 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="C2" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="D2" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>332320.6253236754</v>
+      </c>
+      <c r="E2" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>239071.34609082571</v>
+      </c>
+      <c r="F2" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>225651.85178123059</v>
+      </c>
+      <c r="G2" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>214171.32910223768</v>
+      </c>
+      <c r="H2" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205080.57172721188</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>195989.81435218608</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186899.05697716027</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>177807.92704537965</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>168720.15012439265</v>
+      </c>
+      <c r="M2" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>165761.86321252867</v>
+      </c>
+      <c r="N2" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>162803.57630066472</v>
+      </c>
+      <c r="O2" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>159842.49521313942</v>
+      </c>
+      <c r="P2" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>156884.39457965287</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>153929.27440020515</v>
+      </c>
+      <c r="R2" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>150968.00703430243</v>
+      </c>
+      <c r="S2" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>148009.90640081587</v>
+      </c>
+      <c r="T2" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>145051.61948895192</v>
+      </c>
+      <c r="U2" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>142093.51885546543</v>
+      </c>
+      <c r="V2" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>139132.25148956268</v>
+      </c>
+      <c r="W2" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>136174.15085607613</v>
+      </c>
+      <c r="X2" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>133219.03067662838</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>130260.93004314188</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>127299.66267723915</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>124341.3757653752</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>121383.2751318887</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>118424.98822002472</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>115463.72085412197</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>112505.62022063546</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>109550.68631956511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>295670.72712234</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>295670.72712234</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>332320.6253236754</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>319560.92902691476</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>305268.34796233533</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>267528.72125307191</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>258874.41411634957</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>250219.54814449497</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>241563.93705913064</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>232907.58086025662</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>224250.2932694956</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>220791.66263587188</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>217333.21828062556</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>213874.77392537927</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>210416.32957013301</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>206958.25777164166</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>203500.18597315016</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>200042.11417465872</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>196584.41493292214</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>193126.71569118553</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>189669.20272782643</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>186211.8760428447</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>182754.73563624034</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>179297.78150801346</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>175840.82737978661</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>172384.24580831456</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>168927.66423684251</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>165471.45522212531</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>162015.43248578554</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>158559.59602782319</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>155103.94584823828</v>
       </c>
     </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="C4" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="D4" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>332320.6253236754</v>
+      </c>
+      <c r="E4" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>344629.90050382598</v>
+      </c>
+      <c r="F4" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>347090.26531283662</v>
+      </c>
+      <c r="G4" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>342165.62384888937</v>
+      </c>
+      <c r="H4" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>329351.53426592099</v>
+      </c>
+      <c r="I4" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>316537.63096132991</v>
+      </c>
+      <c r="J4" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>303723.91393511638</v>
+      </c>
+      <c r="K4" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>290910.38318728027</v>
+      </c>
+      <c r="L4" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>278097.03871782159</v>
+      </c>
+      <c r="M4" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>276193.0874221751</v>
+      </c>
+      <c r="N4" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>274288.94984815124</v>
+      </c>
+      <c r="O4" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>272384.81227412733</v>
+      </c>
+      <c r="P4" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>270480.86097848084</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>268576.72340445698</v>
+      </c>
+      <c r="R4" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>266672.58583043312</v>
+      </c>
+      <c r="S4" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>264768.63453478657</v>
+      </c>
+      <c r="T4" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>262864.49696076271</v>
+      </c>
+      <c r="U4" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>260960.54566511625</v>
+      </c>
+      <c r="V4" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>259056.40809109237</v>
+      </c>
+      <c r="W4" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>257152.27051706851</v>
+      </c>
+      <c r="X4" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>255248.31922142199</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>253344.18164739819</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>251440.04407337433</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>249536.09277772781</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>247631.95520370395</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>245727.81762968007</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>243823.86633403358</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>241919.72876000969</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>240015.5911859858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.5546875" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="9.5546875" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9.5546875" customWidth="1"/>
+    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="C2" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="D2" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>263326.05887093366</v>
+      </c>
+      <c r="E2" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>189436.67818917381</v>
+      </c>
+      <c r="F2" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>178803.26491503586</v>
+      </c>
+      <c r="G2" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>169706.26472766226</v>
+      </c>
+      <c r="H2" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>162502.88001632856</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>155299.49530499487</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>148096.11059366117</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>140892.43067374133</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>133691.40763109707</v>
+      </c>
+      <c r="M2" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>131347.30385254926</v>
+      </c>
+      <c r="N2" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>129003.20007400145</v>
+      </c>
+      <c r="O2" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>126656.88223105727</v>
+      </c>
+      <c r="P2" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>124312.92605680255</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>121971.33155123725</v>
+      </c>
+      <c r="R2" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>119624.86610400002</v>
+      </c>
+      <c r="S2" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>117280.90992974529</v>
+      </c>
+      <c r="T2" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>114936.80615119748</v>
+      </c>
+      <c r="U2" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>112592.84997694279</v>
+      </c>
+      <c r="V2" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>110246.38452970554</v>
+      </c>
+      <c r="W2" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>107902.42835545079</v>
+      </c>
+      <c r="X2" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>105560.8338498855</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>103216.87767563078</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>100870.41222839357</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>98526.308449845747</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>96182.352275591023</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>93838.248497043183</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>91491.783049805977</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>89147.826875551254</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>86806.379974279029</v>
+      </c>
+    </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>292856.51176780206</v>
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
       </c>
       <c r="C3" s="2">
-        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>292856.51176780206</v>
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
       </c>
       <c r="D3" s="2">
-        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>329157.57358866697</v>
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>263326.05887093366</v>
       </c>
       <c r="E3" s="2">
-        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>316519.32500364655</v>
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>253215.46000291719</v>
       </c>
       <c r="F3" s="2">
-        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>302362.78175883851</v>
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>241890.22540707077</v>
       </c>
       <c r="G3" s="2">
-        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>264982.36354475952</v>
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>211985.89083580763</v>
       </c>
       <c r="H3" s="2">
-        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>256410.4287289771</v>
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205128.34298318165</v>
       </c>
       <c r="I3" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>247837.9403970956</v>
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>198270.35231767647</v>
       </c>
       <c r="J3" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>239264.71404374859</v>
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>191411.77123499889</v>
       </c>
       <c r="K3" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>230690.74966893613</v>
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>184552.59973514895</v>
       </c>
       <c r="L3" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>222115.86276729195</v>
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>177692.69021383356</v>
       </c>
       <c r="M3" s="2">
-        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>218690.15163006057</v>
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>174952.12130404849</v>
       </c>
       <c r="N3" s="2">
-        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>215264.62499819553</v>
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>172211.69999855643</v>
       </c>
       <c r="O3" s="2">
-        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>211839.09836633052</v>
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>169471.27869306441</v>
       </c>
       <c r="P3" s="2">
-        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>208413.57173446551</v>
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>166730.85738757241</v>
       </c>
       <c r="Q3" s="2">
-        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>204988.41411333327</v>
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>163990.73129066662</v>
       </c>
       <c r="R3" s="2">
-        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>201563.25649220095</v>
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>161250.60519376074</v>
       </c>
       <c r="S3" s="2">
-        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>198138.09887106865</v>
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>158510.47909685489</v>
       </c>
       <c r="T3" s="2">
-        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>194713.31026066907</v>
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>155770.64820853525</v>
       </c>
       <c r="U3" s="2">
-        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>191288.52165026945</v>
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>153030.81732021557</v>
       </c>
       <c r="V3" s="2">
-        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>187863.91754523627</v>
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>150291.13403618903</v>
       </c>
       <c r="W3" s="2">
-        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>184439.49794556946</v>
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>147551.59835645556</v>
       </c>
       <c r="X3" s="2">
-        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>181015.26285126893</v>
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>144812.21028101514</v>
       </c>
       <c r="Y3" s="2">
-        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>177591.2122623348</v>
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>142072.96980986785</v>
       </c>
       <c r="Z3" s="2">
-        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>174167.1616734007</v>
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>139333.72933872056</v>
       </c>
       <c r="AA3" s="2">
-        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>170743.48009519925</v>
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>136594.78407615941</v>
       </c>
       <c r="AB3" s="2">
-        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>167319.79851699786</v>
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>133855.8388135983</v>
       </c>
       <c r="AC3" s="2">
-        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>163896.48594952916</v>
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>131117.18875962336</v>
       </c>
       <c r="AD3" s="2">
-        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>160473.35788742686</v>
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>128378.68630994151</v>
       </c>
       <c r="AE3" s="2">
-        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>157050.41433069092</v>
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>125640.33146455274</v>
       </c>
       <c r="AF3" s="2">
-        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>153627.6552793213</v>
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>122902.12422345704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="C4" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="D4" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>263326.05887093366</v>
+      </c>
+      <c r="E4" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>273079.75055826054</v>
+      </c>
+      <c r="F4" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>275029.30806138122</v>
+      </c>
+      <c r="G4" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>271127.09336498502</v>
+      </c>
+      <c r="H4" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>260973.39404338662</v>
+      </c>
+      <c r="I4" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>250819.8423260813</v>
+      </c>
+      <c r="J4" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>240666.43821306911</v>
+      </c>
+      <c r="K4" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>230513.18170434996</v>
+      </c>
+      <c r="L4" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>220360.07279992398</v>
+      </c>
+      <c r="M4" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>218851.4093202604</v>
+      </c>
+      <c r="N4" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>217342.59823630378</v>
+      </c>
+      <c r="O4" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>215833.7871523471</v>
+      </c>
+      <c r="P4" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>214325.12367268346</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>212816.31258872684</v>
+      </c>
+      <c r="R4" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>211307.50150477022</v>
+      </c>
+      <c r="S4" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>209798.83802510661</v>
+      </c>
+      <c r="T4" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>208290.02694114993</v>
+      </c>
+      <c r="U4" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>206781.36346148638</v>
+      </c>
+      <c r="V4" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205272.5523775297</v>
+      </c>
+      <c r="W4" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>203763.74129357305</v>
+      </c>
+      <c r="X4" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>202255.07781390948</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>200746.26672995285</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>199237.45564599618</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>197728.79216633263</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>196219.98108237592</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>194711.16999841927</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>193202.50651875572</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>191693.69543479901</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>190184.88435084239</v>
       </c>
     </row>
   </sheetData>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459D253-808A-40E2-92A9-BAC08097F6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E44C27-CF7D-41BD-A778-FC6B4D614AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E1" s="1">
         <v>0.1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E44C27-CF7D-41BD-A778-FC6B4D614AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C609495-7C94-4D5E-8915-A1AA8BD82212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Investment Cost NREL, USD" sheetId="4" r:id="rId4"/>
     <sheet name="Investment Cost NREL, EUR" sheetId="84" r:id="rId5"/>
     <sheet name="Investment Cost, Power" sheetId="5" r:id="rId6"/>
-    <sheet name="Investment Cost, Capacity" sheetId="85" r:id="rId7"/>
+    <sheet name="Investment Cost, Energy" sheetId="85" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2074,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C609495-7C94-4D5E-8915-A1AA8BD82212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4335F89-81EC-46AD-BDD4-9A0FD999D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -182,12 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,10 +1572,10 @@
     <col min="23" max="26" width="9.5546875" customWidth="1"/>
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="9.5546875" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1671,8 +1672,20 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG1">
+        <v>2051</v>
+      </c>
+      <c r="AH1">
+        <v>2052</v>
+      </c>
+      <c r="AI1">
+        <v>2053</v>
+      </c>
+      <c r="AJ1">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1800,8 +1813,20 @@
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>109550.68631956511</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1929,8 +1954,20 @@
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>155103.94584823828</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2058,8 +2095,20 @@
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>240015.5911859858</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="F5" s="2"/>
@@ -2072,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,10 +2142,10 @@
     <col min="23" max="26" width="9.5546875" customWidth="1"/>
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="9.5546875" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2193,8 +2242,20 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG1" s="4">
+        <v>2051</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2052</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>2053</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2322,8 +2383,20 @@
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>86806.379974279029</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2451,8 +2524,20 @@
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>122902.12422345704</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2578,6 +2663,18 @@
       </c>
       <c r="AF4" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AJ4" s="5">
         <v>190184.88435084239</v>
       </c>
     </row>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4335F89-81EC-46AD-BDD4-9A0FD999D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD963971-29F5-4B35-A07C-12DB4A529309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,13 +499,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>0.3</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/Shared ESS/CS3_ESS.xlsx
+++ b/data/CS3/Shared ESS/CS3_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD963971-29F5-4B35-A07C-12DB4A529309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B7779-4D21-44F7-B360-B7FE7C422FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -499,16 +499,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.35</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
